--- a/RESULTS/2018/B2 SET 6 [2.8..5.6] All/Fit .xlsx
+++ b/RESULTS/2018/B2 SET 6 [2.8..5.6] All/Fit .xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Feature index</t>
   </si>
@@ -192,97 +192,100 @@
     <t>21Linear0301011156</t>
   </si>
   <si>
-    <t>21Linear0606011156</t>
+    <t>21Linear0503000156</t>
+  </si>
+  <si>
+    <t>11Linear071155</t>
+  </si>
+  <si>
+    <t>21Linear0402000156</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>21Linear0703000156</t>
+  </si>
+  <si>
+    <t>007100</t>
+  </si>
+  <si>
+    <t>21Linear0201000156</t>
+  </si>
+  <si>
+    <t>11Linear041155</t>
+  </si>
+  <si>
+    <t>004111</t>
+  </si>
+  <si>
+    <t>21Linear0303011156</t>
+  </si>
+  <si>
+    <t>11Linear040055</t>
+  </si>
+  <si>
+    <t>21Linear0501000156</t>
+  </si>
+  <si>
+    <t>21Linear0403011156</t>
+  </si>
+  <si>
+    <t>21Linear0301000156</t>
+  </si>
+  <si>
+    <t>003100</t>
+  </si>
+  <si>
+    <t>21Linear0201011156</t>
+  </si>
+  <si>
+    <t>21Linear0404011156</t>
+  </si>
+  <si>
+    <t>11Linear050155</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>11Linear060155</t>
   </si>
   <si>
     <t>006101</t>
   </si>
   <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>11Linear071155</t>
-  </si>
-  <si>
-    <t>21Linear0501001157</t>
-  </si>
-  <si>
-    <t>21Linear0703000156</t>
-  </si>
-  <si>
-    <t>007100</t>
-  </si>
-  <si>
-    <t>21Linear0603000156</t>
+    <t>11Linear030055</t>
+  </si>
+  <si>
+    <t>21Linear0501011156</t>
+  </si>
+  <si>
+    <t>11Linear070155</t>
+  </si>
+  <si>
+    <t>21Linear0202010157</t>
+  </si>
+  <si>
+    <t>21Linear0202001157</t>
+  </si>
+  <si>
+    <t>11Linear010055</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>11Linear010155</t>
+  </si>
+  <si>
+    <t>11Linear011155</t>
+  </si>
+  <si>
+    <t>11Linear060055</t>
   </si>
   <si>
     <t>006100</t>
-  </si>
-  <si>
-    <t>21Linear0301000156</t>
-  </si>
-  <si>
-    <t>003100</t>
-  </si>
-  <si>
-    <t>21Linear0701000156</t>
-  </si>
-  <si>
-    <t>11Linear061155</t>
-  </si>
-  <si>
-    <t>11Linear041155</t>
-  </si>
-  <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>11Linear060055</t>
-  </si>
-  <si>
-    <t>21Linear0505000156</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
-    <t>21Linear0402011156</t>
-  </si>
-  <si>
-    <t>21Linear0202010156</t>
-  </si>
-  <si>
-    <t>002101</t>
-  </si>
-  <si>
-    <t>21Linear0202011156</t>
-  </si>
-  <si>
-    <t>21Linear0303010156</t>
-  </si>
-  <si>
-    <t>11Linear050155</t>
-  </si>
-  <si>
-    <t>11Linear070155</t>
-  </si>
-  <si>
-    <t>21Linear0202010157</t>
-  </si>
-  <si>
-    <t>21Linear0202001157</t>
-  </si>
-  <si>
-    <t>11Linear010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>11Linear010155</t>
-  </si>
-  <si>
-    <t>11Linear011155</t>
   </si>
   <si>
     <t>11Linear120055</t>
@@ -1568,22 +1571,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
@@ -1596,32 +1599,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4483703325930832</v>
+        <v>-0.1836134903861509</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.273300491991337e-07</v>
+        <v>1.923852589450658e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004767914105760859</v>
+        <v>0.000438617440311105</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9464900843721217</v>
+        <v>0.9547155380009603</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9461712566722534</v>
+        <v>0.9544457199552858</v>
       </c>
       <c r="T2" t="n">
-        <v>2.026303381668597e-07</v>
+        <v>1.825823347476318e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004501447968896894</v>
+        <v>0.0004272965419326861</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9260174323132924</v>
+        <v>0.9333371791160885</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9241678681211247</v>
+        <v>0.9316706085939908</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1657,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1941364224930416</v>
+        <v>0.3378166746997318</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -1674,43 +1677,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3323171857389767</v>
+        <v>-0.5687292465520634</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -1727,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1742,19 +1737,19 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -1763,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2874370916147918</v>
+        <v>-0.3721778784957823</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -1780,43 +1775,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.916752176542535</v>
+        <v>0.5793170784086561</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -1833,22 +1828,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -1861,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9569194587519821</v>
+        <v>1.009780562728873</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -1965,22 +1960,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
@@ -1993,32 +1988,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4375969729127863</v>
+        <v>-0.2727218966167839</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.662168510739099e-07</v>
+        <v>2.721945718576943e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0005159620635995537</v>
+        <v>0.0005217226963221882</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9373367432511925</v>
+        <v>0.9359296818621936</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9370259136046211</v>
+        <v>0.9356118727444466</v>
       </c>
       <c r="T2" t="n">
-        <v>2.466768426939275e-07</v>
+        <v>3.204331832473949e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004966657253061938</v>
+        <v>0.0005660681789744015</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9099355685015009</v>
+        <v>0.8830063164127671</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9080670118314076</v>
+        <v>0.8805790615665589</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2054,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1694128814010674</v>
+        <v>0.3958102465265995</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2071,22 +2066,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -2101,13 +2096,13 @@
         <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3293142541046271</v>
+        <v>0.6361581466857498</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2124,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -2139,19 +2134,19 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -2160,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2381552955978589</v>
+        <v>-0.3477018647042383</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -2177,27 +2172,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9504022718985433</v>
+        <v>0.3441853833155225</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -2309,27 +2312,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
@@ -2337,11 +2348,11 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.3342375313319814</v>
+        <v>0.2763799714842571</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>4.237164808458909e-07</v>
+        <v>4.237164808458908e-07</v>
       </c>
       <c r="Q2" t="n">
         <v>0.0006509350818982572</v>
@@ -2353,16 +2364,16 @@
         <v>0.8998684230074168</v>
       </c>
       <c r="T2" t="n">
-        <v>4.061856752838753e-07</v>
+        <v>4.061856752838741e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0006373269767426099</v>
+        <v>0.000637326976742609</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8516971373244485</v>
+        <v>0.851697137324449</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8492458503380758</v>
+        <v>0.8492458503380762</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2398,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05608268101860092</v>
+        <v>0.05608268101860074</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2415,35 +2426,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
       <c r="L4" t="n">
         <v>4</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2763799714842575</v>
+        <v>1.148386541421869</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2468,22 +2471,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
@@ -2496,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.148386541421869</v>
+        <v>-0.334237531331981</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -2600,27 +2603,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
@@ -2628,32 +2639,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2784159944104386</v>
+        <v>0.2104475362602439</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>8.10104177304896e-07</v>
+        <v>8.616119466974206e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000900057874419693</v>
+        <v>0.0009282305460915519</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8093142269132896</v>
+        <v>0.7971901086804206</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8087478335278835</v>
+        <v>0.7965877030626397</v>
       </c>
       <c r="T2" t="n">
-        <v>7.100711438530295e-07</v>
+        <v>7.949653504223781e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0008426571923700821</v>
+        <v>0.0008916082942763477</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7407452065779729</v>
+        <v>0.7097493969645368</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7375445301159727</v>
+        <v>0.7061660561863212</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2661,43 +2672,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1069597981208172</v>
+        <v>0.1403764097997207</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2714,13 +2717,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
         <v>-2</v>
@@ -2729,7 +2732,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -2744,13 +2747,13 @@
         <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2244760359738592</v>
+        <v>-0.1745282825348339</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2857,7 +2860,7 @@
         <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -2869,7 +2872,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -2881,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -2926,7 +2929,7 @@
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -3054,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -3066,7 +3069,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -3111,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -3152,7 +3155,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -3193,7 +3196,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -3205,7 +3208,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -3234,7 +3237,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -3246,7 +3249,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -3387,32 +3390,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8289992891497427</v>
+        <v>-0.9439316030632962</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>6.413122027856675e-08</v>
+        <v>6.821105390449421e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002532414268609438</v>
+        <v>0.0002611724600804882</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9849045201093809</v>
+        <v>0.9839441914864459</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9846929718426455</v>
+        <v>0.9837191851609306</v>
       </c>
       <c r="T2" t="n">
-        <v>8.89252165354887e-08</v>
+        <v>8.926239476866609e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0002982033140920615</v>
+        <v>0.0002987681287698976</v>
       </c>
       <c r="V2" t="n">
-        <v>0.967532424261295</v>
+        <v>0.9674093167755936</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9655731740012008</v>
+        <v>0.9654426376155001</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3448,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5626900754408519</v>
+        <v>0.4845873647125026</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -3501,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5113114425225714</v>
+        <v>0.5665312552814568</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -3554,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.487404549356553</v>
+        <v>-2.796527928016097</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -3607,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.456572870033921</v>
+        <v>2.478048788604025</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -3652,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>4.138377628362495</v>
+        <v>3.942944284550905</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -3697,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.381965216801122</v>
+        <v>-0.9228507346253889</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -3750,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>12.64816611843273</v>
+        <v>17.32161548308967</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -3795,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-33.35077635958157</v>
+        <v>-36.36085653907381</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -3848,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>-87.88898273044727</v>
+        <v>-109.6562127609585</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -3865,43 +3868,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
       <c r="I12" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-6.238281451662976</v>
+        <v>157.1390266877675</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -3921,7 +3924,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -3946,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9333552677422361</v>
+        <v>0.4170076583352618</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -3963,22 +3966,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
@@ -3999,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.990851711989507</v>
+        <v>-2.587567137064106</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -4016,34 +4019,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
@@ -4052,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>411.7212848781504</v>
+        <v>-22.23114686489422</v>
       </c>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
@@ -4184,32 +4187,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8873240134510807</v>
+        <v>-0.9171876778912738</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.045221879836316e-08</v>
+        <v>7.061319927513158e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002654283684883045</v>
+        <v>0.0002657314420145489</v>
       </c>
       <c r="R2" t="n">
-        <v>0.983416656544182</v>
+        <v>0.9833787642736267</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9832010730792563</v>
+        <v>0.9831626882091838</v>
       </c>
       <c r="T2" t="n">
-        <v>9.017135870053489e-08</v>
+        <v>8.827859105931605e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003002854620199501</v>
+        <v>0.0002971171335674132</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9670774440352004</v>
+        <v>0.9677685143428281</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9652405632302974</v>
+        <v>0.9659701911087369</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4245,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.477275241588247</v>
+        <v>0.4764020144313279</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -4298,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5726169666407911</v>
+        <v>0.6172317166938674</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -4351,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.894831644751811</v>
+        <v>-2.860354082693728</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -4404,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.607927300222856</v>
+        <v>2.564136025061047</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -4449,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.833087533057161</v>
+        <v>3.841872007793885</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -4494,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.9313794466388881</v>
+        <v>-0.9149424016635648</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -4547,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>10.15063053522817</v>
+        <v>11.95753664840075</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -4592,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-27.64384930873887</v>
+        <v>-31.18618582553625</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -4645,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>-89.9716724812081</v>
+        <v>-74.95020734932955</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -4662,22 +4665,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -4698,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>205.2330253084815</v>
+        <v>323.7503104655947</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -4718,7 +4721,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -4743,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4149000490706101</v>
+        <v>0.4023916285435334</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -4760,22 +4763,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
@@ -4796,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-6.861522295914853</v>
+        <v>-2.843220770772234</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -4928,32 +4931,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8560967034431237</v>
+        <v>-1.253189922063499</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.131838403548836e-08</v>
+        <v>7.598328578092724e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002670550206146448</v>
+        <v>0.0002756506589524633</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9832127748799601</v>
+        <v>0.9821147304300946</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9830115294239755</v>
+        <v>0.9819003216040817</v>
       </c>
       <c r="T2" t="n">
-        <v>9.468190436636316e-08</v>
+        <v>9.589504780201025e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003077042482098081</v>
+        <v>0.0003096692555001388</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9654305941456673</v>
+        <v>0.964987662119035</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9636578041018554</v>
+        <v>0.9631921576123188</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4989,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5806367953940925</v>
+        <v>0.8325514859429903</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -5006,10 +5009,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -5024,7 +5027,7 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
         <v>-1</v>
@@ -5033,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -5042,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1789784703512611</v>
+        <v>0.618948102606637</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -5095,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.852269805849843</v>
+        <v>-2.781631748944315</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -5148,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46424302431688</v>
+        <v>2.468882898740488</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -5193,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.487386169521191</v>
+        <v>4.354170681142946</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -5210,22 +5213,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -5238,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.456827986203443</v>
+        <v>0.1278286538200162</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -5255,22 +5258,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -5291,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.462745035203654</v>
+        <v>10.49239779154717</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -5336,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-31.10677627433103</v>
+        <v>-35.55564699723075</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -5353,34 +5356,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -5389,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>66.83758731278171</v>
+        <v>-89.61325236131417</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -5406,34 +5409,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -5442,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-100.3994920484498</v>
+        <v>393.0651386108065</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -5459,22 +5462,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
@@ -5487,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.868670595190153</v>
+        <v>-0.9681642819481997</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -5619,32 +5622,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.9313686411633407</v>
+        <v>-1.605388387017318</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>8.313278476968343e-08</v>
+        <v>8.595224971386759e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002883275650535055</v>
+        <v>0.0002931761411061064</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9804318508942932</v>
+        <v>0.9797681932220648</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9802170308941307</v>
+        <v>0.979546087558834</v>
       </c>
       <c r="T2" t="n">
-        <v>1.055936933414387e-07</v>
+        <v>9.949313682546314e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003249518323404851</v>
+        <v>0.0003154253268611497</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9614465798379637</v>
+        <v>0.9636739601969605</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9596419516601662</v>
+        <v>0.9619735923763927</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5680,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8502302905865997</v>
+        <v>0.76521075303956</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -5697,27 +5700,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
@@ -5725,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1297662542219845</v>
+        <v>0.8760258728294958</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -5778,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.880495258907826</v>
+        <v>-1.56018101965426</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -5795,10 +5806,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -5816,13 +5827,13 @@
         <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
@@ -5831,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.58521517030084</v>
+        <v>1.640356372435125</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -5876,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.655923999542966</v>
+        <v>4.184698986258965</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -5896,7 +5907,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -5908,7 +5919,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -5921,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.9988940700202227</v>
+        <v>-0.8557772600299034</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -5938,34 +5949,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -5974,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.297808361207824</v>
+        <v>16.23348515276528</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -5991,22 +6002,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
@@ -6019,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-100.3524037558802</v>
+        <v>-20.49983953679482</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -6036,34 +6047,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -6072,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>136.0221908486447</v>
+        <v>-93.76974090649605</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -6089,34 +6100,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -6125,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-130.2312210283999</v>
+        <v>301.612896963009</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -6257,32 +6268,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8636193674281957</v>
+        <v>-0.9853444173501913</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.091986276708733e-07</v>
+        <v>1.036344941017295e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000330452156402214</v>
+        <v>0.0003219231183089055</v>
       </c>
       <c r="R2" t="n">
-        <v>0.974296361726337</v>
+        <v>0.9756060711944696</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9740400941463404</v>
+        <v>0.9753628615353915</v>
       </c>
       <c r="T2" t="n">
-        <v>1.323639146006506e-07</v>
+        <v>1.34573338255266e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003638185187708984</v>
+        <v>0.0003668423888473986</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9516724772814804</v>
+        <v>0.9508657923765694</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9496247008951024</v>
+        <v>0.9487838344264241</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6318,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7060249885290825</v>
+        <v>0.6748196557581957</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -6335,43 +6346,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>-181.2688262640721</v>
+        <v>19.38089978061286</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -6424,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.827685146674345</v>
+        <v>-1.346591499232407</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -6441,34 +6444,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
@@ -6477,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.534184989852533</v>
+        <v>1.324007715739995</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -6522,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.701717718152114</v>
+        <v>2.91425618038408</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -6542,7 +6545,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -6554,7 +6557,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -6567,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.6408446317981932</v>
+        <v>-0.7187584409056362</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -6584,22 +6587,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -6620,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.849325869861152</v>
+        <v>43.33414174280278</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -6637,22 +6640,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
@@ -6665,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-81.49516594415203</v>
+        <v>-88.07353793006905</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -6682,34 +6685,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
@@ -6718,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>97.24283139048887</v>
+        <v>-30.88875673772437</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -6850,32 +6853,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.489431720967796</v>
+        <v>-0.6729315441059813</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.552303930364381e-07</v>
+        <v>1.800385379092563e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003939928844997561</v>
+        <v>0.0004243094836428433</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9634612086544437</v>
+        <v>0.9576217618074242</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9631336696881987</v>
+        <v>0.9572418772021123</v>
       </c>
       <c r="T2" t="n">
-        <v>1.907163885016023e-07</v>
+        <v>1.902905032119805e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004367108751812832</v>
+        <v>0.0004362229971149853</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9303673465240662</v>
+        <v>0.9305228419328547</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9277230685439675</v>
+        <v>0.9278844688416973</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6911,7 +6914,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5268494529348666</v>
+        <v>0.4422007161481498</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -6928,10 +6931,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -6945,26 +6948,18 @@
       <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.487792976036817</v>
+        <v>12.66845513243623</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -7017,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.80223583362556</v>
+        <v>-0.7077776472320644</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -7034,34 +7029,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
@@ -7070,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.329069185727273</v>
+        <v>0.6365275769581789</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -7115,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.893138024472382</v>
+        <v>1.408831763339843</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -7135,7 +7130,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -7147,7 +7142,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -7160,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.4875171125380883</v>
+        <v>-0.3375070562539795</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -7177,22 +7172,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -7213,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.858065072531795</v>
+        <v>14.996358225814</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -7258,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-13.51940685098199</v>
+        <v>-45.79492862037344</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -7362,13 +7357,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>-3</v>
@@ -7377,12 +7372,20 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
@@ -7390,32 +7393,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5612811659435406</v>
+        <v>0.9697500940490238</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.770980057490591e-07</v>
+        <v>1.401582726678805e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000420830138831642</v>
+        <v>0.0003743771796836454</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9583139167968219</v>
+        <v>0.967008948568705</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9579820872787866</v>
+        <v>0.9667463332339286</v>
       </c>
       <c r="T2" t="n">
-        <v>1.881719452597008e-07</v>
+        <v>1.42175759980761e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004337879035423888</v>
+        <v>0.0003770620107896856</v>
       </c>
       <c r="V2" t="n">
-        <v>0.931296350769294</v>
+        <v>0.9480900644920995</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9289869844085979</v>
+        <v>0.9463451927103214</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7451,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3039058284231332</v>
+        <v>0.534483423058023</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -7468,43 +7471,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3469323198608043</v>
+        <v>-3.553376123272796</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -7521,22 +7516,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -7557,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.013272277636993</v>
+        <v>-0.4814386014935191</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -7574,34 +7569,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
@@ -7610,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6691287517851477</v>
+        <v>0.6180913667737961</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -7627,22 +7622,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -7655,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.457058719362285</v>
+        <v>0.6741523464460578</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -7675,7 +7670,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -7687,7 +7682,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -7700,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.2458526869996246</v>
+        <v>-0.4121346760822046</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -7717,13 +7712,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>-2</v>
@@ -7732,28 +7727,28 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2426523454883942</v>
+        <v>0.4668165708880037</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -7857,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>-3</v>
@@ -7872,12 +7867,20 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
@@ -7885,32 +7888,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5534245288212416</v>
+        <v>1.004873271101492</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.152077593177883e-07</v>
+        <v>1.637816266627645e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004639049033129401</v>
+        <v>0.0004046994275542832</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9493434806171525</v>
+        <v>0.9614483828468965</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9489909998659796</v>
+        <v>0.9611801310376801</v>
       </c>
       <c r="T2" t="n">
-        <v>2.49184482149569e-07</v>
+        <v>1.500055130028124e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004991838159932361</v>
+        <v>0.0003873054518113737</v>
       </c>
       <c r="V2" t="n">
-        <v>0.909020001723894</v>
+        <v>0.9452313354480454</v>
       </c>
       <c r="W2" t="n">
-        <v>0.906355315581916</v>
+        <v>0.9436272323021723</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -7946,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2695773553387505</v>
+        <v>0.4322748559551165</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -7963,43 +7966,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3505239564906458</v>
+        <v>-3.665495084398048</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -8016,22 +8011,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -8052,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.8313488766778646</v>
+        <v>-0.4312318779118903</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -8069,43 +8064,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5216485943186959</v>
+        <v>0.4547300561374605</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -8122,22 +8117,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -8150,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.341101636759058</v>
+        <v>1.049189418393183</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -8170,7 +8165,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -8182,7 +8177,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -8195,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.2098791941355685</v>
+        <v>-0.2528870956061149</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
